--- a/rarityclass.xlsx
+++ b/rarityclass.xlsx
@@ -127,35 +127,187 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>对应星值出现几率，</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>0.2</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>代表</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>20%</t>
+          <t>稀有度</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>6</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>的最大等级是稀有度</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>1</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>的</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>10</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>倍，所以属性也要</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>10</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>倍于它。</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>6</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>是大</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>r</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>，</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>5</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>是小</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>r</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>，</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>4</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>是长时间玩能得到。不过好像有点差太多了，因为星升满，属性又加</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>150%</t>
         </r>
       </text>
     </comment>
@@ -164,33 +316,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>star1</t>
+    <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>star2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>star3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>star4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>star5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>star6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>id</t>
+    <t>maxlevel</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -563,81 +695,68 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:2">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.2</v>
-      </c>
-      <c r="C2">
-        <v>0.4</v>
-      </c>
-      <c r="D2">
-        <v>0.3</v>
-      </c>
-      <c r="E2">
-        <v>7.9000000000000001E-2</v>
-      </c>
-      <c r="F2">
-        <v>0.02</v>
-      </c>
-      <c r="G2">
-        <v>1E-3</v>
+        <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:2">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.1</v>
-      </c>
-      <c r="C3">
-        <v>0.3</v>
-      </c>
-      <c r="D3">
-        <v>0.2</v>
-      </c>
-      <c r="E3">
-        <v>0.2</v>
-      </c>
-      <c r="F3">
-        <v>0.19</v>
-      </c>
-      <c r="G3">
-        <v>0.01</v>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/rarityclass.xlsx
+++ b/rarityclass.xlsx
@@ -311,18 +311,188 @@
         </r>
       </text>
     </comment>
+    <comment ref="C1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>王朋</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>组合升星等所需铜币</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>王朋</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>进化所需铜币</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>王朋</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>变异率，执行</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>combine</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>变成新怪时会有一定变异几率，变异成同等级的其他怪</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="6">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>maxlevel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>starupcopper</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>combinecopper</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mutation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10,20,40,80,160,320,640,1280,2960,5920</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -695,68 +865,135 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="3" max="3" width="49.125" customWidth="1"/>
+    <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
         <v>10</v>
       </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2">
+        <v>500</v>
+      </c>
+      <c r="E2">
+        <v>0.1</v>
+      </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
         <v>20</v>
       </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3">
+        <v>1000</v>
+      </c>
+      <c r="E3">
+        <v>0.08</v>
+      </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:5">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
         <v>30</v>
       </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>2000</v>
+      </c>
+      <c r="E4">
+        <v>0.05</v>
+      </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:5">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5">
         <v>60</v>
       </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5">
+        <v>5000</v>
+      </c>
+      <c r="E5">
+        <v>0.02</v>
+      </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:5">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6">
         <v>80</v>
       </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6">
+        <v>10000</v>
+      </c>
+      <c r="E6">
+        <v>0.01</v>
+      </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:5">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7">
         <v>100</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7">
+        <v>100000</v>
+      </c>
+      <c r="E7">
+        <v>1E-3</v>
       </c>
     </row>
   </sheetData>

--- a/rarityclass.xlsx
+++ b/rarityclass.xlsx
@@ -465,12 +465,57 @@
         </r>
       </text>
     </comment>
+    <comment ref="F1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>王朋</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>装备强化消耗铜币</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="7">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -493,6 +538,10 @@
   </si>
   <si>
     <t>10,20,40,80,160,320,640,1280,2960,5920</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enhancecopper</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -865,19 +914,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="3" max="3" width="49.125" customWidth="1"/>
     <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -893,8 +943,11 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>1</v>
       </c>
@@ -910,8 +963,11 @@
       <c r="E2">
         <v>0.1</v>
       </c>
+      <c r="F2">
+        <v>100</v>
+      </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>2</v>
       </c>
@@ -927,8 +983,11 @@
       <c r="E3">
         <v>0.08</v>
       </c>
+      <c r="F3">
+        <v>1000</v>
+      </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>3</v>
       </c>
@@ -944,8 +1003,11 @@
       <c r="E4">
         <v>0.05</v>
       </c>
+      <c r="F4">
+        <v>1900</v>
+      </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>4</v>
       </c>
@@ -961,8 +1023,11 @@
       <c r="E5">
         <v>0.02</v>
       </c>
+      <c r="F5">
+        <v>2800</v>
+      </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:6">
       <c r="A6">
         <v>5</v>
       </c>
@@ -978,8 +1043,11 @@
       <c r="E6">
         <v>0.01</v>
       </c>
+      <c r="F6">
+        <v>3700</v>
+      </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:6">
       <c r="A7">
         <v>6</v>
       </c>
@@ -994,6 +1062,9 @@
       </c>
       <c r="E7">
         <v>1E-3</v>
+      </c>
+      <c r="F7">
+        <v>4600</v>
       </c>
     </row>
   </sheetData>

--- a/rarityclass.xlsx
+++ b/rarityclass.xlsx
@@ -510,12 +510,57 @@
         </r>
       </text>
     </comment>
+    <comment ref="G1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>王朋</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>强化武器时化为的经验值</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="8">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -541,7 +586,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>enhancecopper</t>
+    <t>enhencecopper</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enhenceexp</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -914,10 +963,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -925,9 +974,10 @@
     <col min="3" max="3" width="49.125" customWidth="1"/>
     <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.375" customWidth="1"/>
+    <col min="7" max="7" width="17.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -946,8 +996,11 @@
       <c r="F1" t="s">
         <v>6</v>
       </c>
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:7">
       <c r="A2">
         <v>1</v>
       </c>
@@ -966,8 +1019,11 @@
       <c r="F2">
         <v>100</v>
       </c>
+      <c r="G2">
+        <v>10</v>
+      </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:7">
       <c r="A3">
         <v>2</v>
       </c>
@@ -986,8 +1042,11 @@
       <c r="F3">
         <v>1000</v>
       </c>
+      <c r="G3">
+        <v>20</v>
+      </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:7">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1006,8 +1065,11 @@
       <c r="F4">
         <v>1900</v>
       </c>
+      <c r="G4">
+        <v>50</v>
+      </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1026,8 +1088,11 @@
       <c r="F5">
         <v>2800</v>
       </c>
+      <c r="G5">
+        <v>100</v>
+      </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:7">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1046,8 +1111,11 @@
       <c r="F6">
         <v>3700</v>
       </c>
+      <c r="G6">
+        <v>500</v>
+      </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:7">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1065,6 +1133,9 @@
       </c>
       <c r="F7">
         <v>4600</v>
+      </c>
+      <c r="G7">
+        <v>1000</v>
       </c>
     </row>
   </sheetData>
